--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
   <si>
     <t>1_Software_product_requirements</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>1.2.2.1_Problem_analysis_of_existing_software.docx</t>
+  </si>
+  <si>
+    <t>3.2_Logical_design_of_program_classes</t>
+  </si>
+  <si>
+    <t>3.2 Проектування програмних класів</t>
+  </si>
+  <si>
+    <t>3.2.1_UML-diagram_of _program_classes.docx</t>
+  </si>
+  <si>
+    <t>3.2.1 UML-діаграми програмних класів</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -355,7 +367,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -363,6 +377,34 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -372,7 +414,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -387,112 +429,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -501,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,7 +453,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,40 +472,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -836,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -853,53 +779,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="15"/>
+      <c r="C2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="13"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -908,13 +834,13 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -923,39 +849,39 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -964,13 +890,13 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -979,13 +905,13 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -994,13 +920,13 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1009,13 +935,13 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1024,26 +950,26 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1052,13 +978,13 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1067,26 +993,26 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1095,13 +1021,13 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1110,13 +1036,13 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -1125,26 +1051,26 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -1152,13 +1078,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1166,49 +1092,49 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -1216,13 +1142,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -1230,13 +1156,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1244,13 +1170,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -1258,13 +1184,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -1272,13 +1198,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1286,25 +1212,25 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -1312,13 +1238,13 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1326,25 +1252,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1352,13 +1278,13 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1366,25 +1292,25 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -1392,13 +1318,13 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -1406,55 +1332,81 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Таблица.xlsx
+++ b/Таблица.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>1_Software_product_requirements</t>
   </si>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -912,11 +912,9 @@
         <v>81</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
